--- a/src/.vuepress/public/assets/numDEs/status/score.xlsx
+++ b/src/.vuepress/public/assets/numDEs/status/score.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11380"/>
+    <workbookView windowWidth="28000" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1820,7 +1820,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
